--- a/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>F2rl3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H2">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I2">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J2">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.43918403387336</v>
+        <v>8.750552000000001</v>
       </c>
       <c r="N2">
-        <v>8.43918403387336</v>
+        <v>17.501104</v>
       </c>
       <c r="O2">
-        <v>0.557479510762864</v>
+        <v>0.5609966218914535</v>
       </c>
       <c r="P2">
-        <v>0.557479510762864</v>
+        <v>0.4734644514473084</v>
       </c>
       <c r="Q2">
-        <v>16.07989345811976</v>
+        <v>16.750188505948</v>
       </c>
       <c r="R2">
-        <v>16.07989345811976</v>
+        <v>67.00075402379201</v>
       </c>
       <c r="S2">
-        <v>0.3358071315371325</v>
+        <v>0.2976024902753797</v>
       </c>
       <c r="T2">
-        <v>0.3358071315371325</v>
+        <v>0.2115923078184608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H3">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I3">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J3">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.31336036989834</v>
+        <v>0.324405</v>
       </c>
       <c r="N3">
-        <v>0.31336036989834</v>
+        <v>0.9732149999999999</v>
       </c>
       <c r="O3">
-        <v>0.02070010382546637</v>
+        <v>0.0207975575854754</v>
       </c>
       <c r="P3">
-        <v>0.02070010382546637</v>
+        <v>0.02632877937959184</v>
       </c>
       <c r="Q3">
-        <v>0.5970721033855247</v>
+        <v>0.6209716715325</v>
       </c>
       <c r="R3">
-        <v>0.5970721033855247</v>
+        <v>3.725830029195</v>
       </c>
       <c r="S3">
-        <v>0.01246905465393426</v>
+        <v>0.01103287379559421</v>
       </c>
       <c r="T3">
-        <v>0.01246905465393426</v>
+        <v>0.01176638958625372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H4">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I4">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J4">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.305857492138615</v>
+        <v>0.3575543333333334</v>
       </c>
       <c r="N4">
-        <v>0.305857492138615</v>
+        <v>1.072663</v>
       </c>
       <c r="O4">
-        <v>0.02020447526635254</v>
+        <v>0.02292275654640424</v>
       </c>
       <c r="P4">
-        <v>0.02020447526635254</v>
+        <v>0.02901918638291757</v>
       </c>
       <c r="Q4">
-        <v>0.5827762337230757</v>
+        <v>0.6844256778831668</v>
       </c>
       <c r="R4">
-        <v>0.5827762337230757</v>
+        <v>4.106554067299</v>
       </c>
       <c r="S4">
-        <v>0.01217050448028547</v>
+        <v>0.01216026829036079</v>
       </c>
       <c r="T4">
-        <v>0.01217050448028547</v>
+        <v>0.01296873841110101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H5">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I5">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J5">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.416200874535538</v>
+        <v>0.4339576666666667</v>
       </c>
       <c r="N5">
-        <v>0.416200874535538</v>
+        <v>1.301873</v>
       </c>
       <c r="O5">
-        <v>0.02749358930719458</v>
+        <v>0.02782096318539646</v>
       </c>
       <c r="P5">
-        <v>0.02749358930719458</v>
+        <v>0.03522009730352221</v>
       </c>
       <c r="Q5">
-        <v>0.7930228435409598</v>
+        <v>0.8306759071048334</v>
       </c>
       <c r="R5">
-        <v>0.7930228435409598</v>
+        <v>4.984055442629001</v>
       </c>
       <c r="S5">
-        <v>0.01656122455204682</v>
+        <v>0.01475871262453993</v>
       </c>
       <c r="T5">
-        <v>0.01656122455204682</v>
+        <v>0.01573993918078214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H6">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I6">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J6">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.60715777624512</v>
+        <v>4.651555333333333</v>
       </c>
       <c r="N6">
-        <v>4.60715777624512</v>
+        <v>13.954666</v>
       </c>
       <c r="O6">
-        <v>0.3043417530414523</v>
+        <v>0.2982105390084161</v>
       </c>
       <c r="P6">
-        <v>0.3043417530414523</v>
+        <v>0.3775212285362343</v>
       </c>
       <c r="Q6">
-        <v>8.778408657687198</v>
+        <v>8.903944423069667</v>
       </c>
       <c r="R6">
-        <v>8.778408657687198</v>
+        <v>53.423666538418</v>
       </c>
       <c r="S6">
-        <v>0.1833253583723286</v>
+        <v>0.1581973858167718</v>
       </c>
       <c r="T6">
-        <v>0.1833253583723286</v>
+        <v>0.1687150698479255</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.90538485635317</v>
+        <v>1.9141865</v>
       </c>
       <c r="H7">
-        <v>1.90538485635317</v>
+        <v>3.828373</v>
       </c>
       <c r="I7">
-        <v>0.6023667687402692</v>
+        <v>0.5304889167995069</v>
       </c>
       <c r="J7">
-        <v>0.6023667687402692</v>
+        <v>0.4469022060086147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.05634564545418</v>
+        <v>1.0802015</v>
       </c>
       <c r="N7">
-        <v>1.05634564545418</v>
+        <v>2.160403</v>
       </c>
       <c r="O7">
-        <v>0.06978056779667034</v>
+        <v>0.06925156178285448</v>
       </c>
       <c r="P7">
-        <v>0.06978056779667034</v>
+        <v>0.0584462569504255</v>
       </c>
       <c r="Q7">
-        <v>2.012744995923009</v>
+        <v>2.06770712857975</v>
       </c>
       <c r="R7">
-        <v>2.012744995923009</v>
+        <v>8.270828514319</v>
       </c>
       <c r="S7">
-        <v>0.0420334951445416</v>
+        <v>0.03673718599686061</v>
       </c>
       <c r="T7">
-        <v>0.0420334951445416</v>
+        <v>0.02611976116409149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H8">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J8">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.43918403387336</v>
+        <v>8.750552000000001</v>
       </c>
       <c r="N8">
-        <v>8.43918403387336</v>
+        <v>17.501104</v>
       </c>
       <c r="O8">
-        <v>0.557479510762864</v>
+        <v>0.5609966218914535</v>
       </c>
       <c r="P8">
-        <v>0.557479510762864</v>
+        <v>0.4734644514473084</v>
       </c>
       <c r="Q8">
-        <v>3.481919709545677</v>
+        <v>4.591817159792001</v>
       </c>
       <c r="R8">
-        <v>3.481919709545677</v>
+        <v>27.550902958752</v>
       </c>
       <c r="S8">
-        <v>0.07271524982118019</v>
+        <v>0.08158333389251488</v>
       </c>
       <c r="T8">
-        <v>0.07271524982118019</v>
+        <v>0.08700736617762117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H9">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J9">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31336036989834</v>
+        <v>0.324405</v>
       </c>
       <c r="N9">
-        <v>0.31336036989834</v>
+        <v>0.9732149999999999</v>
       </c>
       <c r="O9">
-        <v>0.02070010382546637</v>
+        <v>0.0207975575854754</v>
       </c>
       <c r="P9">
-        <v>0.02070010382546637</v>
+        <v>0.02632877937959184</v>
       </c>
       <c r="Q9">
-        <v>0.1292892350445367</v>
+        <v>0.17023022613</v>
       </c>
       <c r="R9">
-        <v>0.1292892350445367</v>
+        <v>1.53207203517</v>
       </c>
       <c r="S9">
-        <v>0.002700033260295785</v>
+        <v>0.003024499646582443</v>
       </c>
       <c r="T9">
-        <v>0.002700033260295785</v>
+        <v>0.00483837327488332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H10">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J10">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.305857492138615</v>
+        <v>0.3575543333333334</v>
       </c>
       <c r="N10">
-        <v>0.305857492138615</v>
+        <v>1.072663</v>
       </c>
       <c r="O10">
-        <v>0.02020447526635254</v>
+        <v>0.02292275654640424</v>
       </c>
       <c r="P10">
-        <v>0.02020447526635254</v>
+        <v>0.02901918638291757</v>
       </c>
       <c r="Q10">
-        <v>0.1261936255821716</v>
+        <v>0.1876252061993334</v>
       </c>
       <c r="R10">
-        <v>0.1261936255821716</v>
+        <v>1.688626855794</v>
       </c>
       <c r="S10">
-        <v>0.002635385584823092</v>
+        <v>0.003333558221361224</v>
       </c>
       <c r="T10">
-        <v>0.002635385584823092</v>
+        <v>0.005332782573384266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H11">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J11">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.416200874535538</v>
+        <v>0.4339576666666667</v>
       </c>
       <c r="N11">
-        <v>0.416200874535538</v>
+        <v>1.301873</v>
       </c>
       <c r="O11">
-        <v>0.02749358930719458</v>
+        <v>0.02782096318539646</v>
       </c>
       <c r="P11">
-        <v>0.02749358930719458</v>
+        <v>0.03522009730352221</v>
       </c>
       <c r="Q11">
-        <v>0.1717201594797197</v>
+        <v>0.2277175497526667</v>
       </c>
       <c r="R11">
-        <v>0.1717201594797197</v>
+        <v>2.049457947774</v>
       </c>
       <c r="S11">
-        <v>0.003586146533381721</v>
+        <v>0.004045883415684329</v>
       </c>
       <c r="T11">
-        <v>0.003586146533381721</v>
+        <v>0.006472308308536318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H12">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J12">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.60715777624512</v>
+        <v>4.651555333333333</v>
       </c>
       <c r="N12">
-        <v>4.60715777624512</v>
+        <v>13.954666</v>
       </c>
       <c r="O12">
-        <v>0.3043417530414523</v>
+        <v>0.2982105390084161</v>
       </c>
       <c r="P12">
-        <v>0.3043417530414523</v>
+        <v>0.3775212285362343</v>
       </c>
       <c r="Q12">
-        <v>1.900865463024128</v>
+        <v>2.440885054945334</v>
       </c>
       <c r="R12">
-        <v>1.900865463024128</v>
+        <v>21.967965494508</v>
       </c>
       <c r="S12">
-        <v>0.03969704029685627</v>
+        <v>0.04336748034625034</v>
       </c>
       <c r="T12">
-        <v>0.03969704029685627</v>
+        <v>0.06937612247481073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.41258961714425</v>
+        <v>0.524746</v>
       </c>
       <c r="H13">
-        <v>0.41258961714425</v>
+        <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.1304357351567513</v>
+        <v>0.145425713291194</v>
       </c>
       <c r="J13">
-        <v>0.1304357351567513</v>
+        <v>0.1837674738022104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.05634564545418</v>
+        <v>1.0802015</v>
       </c>
       <c r="N13">
-        <v>1.05634564545418</v>
+        <v>2.160403</v>
       </c>
       <c r="O13">
-        <v>0.06978056779667034</v>
+        <v>0.06925156178285448</v>
       </c>
       <c r="P13">
-        <v>0.06978056779667034</v>
+        <v>0.0584462569504255</v>
       </c>
       <c r="Q13">
-        <v>0.4358372454299358</v>
+        <v>0.566831416319</v>
       </c>
       <c r="R13">
-        <v>0.4358372454299358</v>
+        <v>3.400988497914</v>
       </c>
       <c r="S13">
-        <v>0.00910187966021422</v>
+        <v>0.0100709577688008</v>
       </c>
       <c r="T13">
-        <v>0.00910187966021422</v>
+        <v>0.01074052099297457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H14">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I14">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J14">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.43918403387336</v>
+        <v>8.750552000000001</v>
       </c>
       <c r="N14">
-        <v>8.43918403387336</v>
+        <v>17.501104</v>
       </c>
       <c r="O14">
-        <v>0.557479510762864</v>
+        <v>0.5609966218914535</v>
       </c>
       <c r="P14">
-        <v>0.557479510762864</v>
+        <v>0.4734644514473084</v>
       </c>
       <c r="Q14">
-        <v>4.230191601946781</v>
+        <v>1.080217725341333</v>
       </c>
       <c r="R14">
-        <v>4.230191601946781</v>
+        <v>6.481306352048001</v>
       </c>
       <c r="S14">
-        <v>0.08834191043628468</v>
+        <v>0.01919235028232852</v>
       </c>
       <c r="T14">
-        <v>0.08834191043628468</v>
+        <v>0.02046834529983502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H15">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I15">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J15">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.31336036989834</v>
+        <v>0.324405</v>
       </c>
       <c r="N15">
-        <v>0.31336036989834</v>
+        <v>0.9732149999999999</v>
       </c>
       <c r="O15">
-        <v>0.02070010382546637</v>
+        <v>0.0207975575854754</v>
       </c>
       <c r="P15">
-        <v>0.02070010382546637</v>
+        <v>0.02632877937959184</v>
       </c>
       <c r="Q15">
-        <v>0.157073764454748</v>
+        <v>0.040046391495</v>
       </c>
       <c r="R15">
-        <v>0.157073764454748</v>
+        <v>0.360417523455</v>
       </c>
       <c r="S15">
-        <v>0.003280276104979607</v>
+        <v>0.000711508758914727</v>
       </c>
       <c r="T15">
-        <v>0.003280276104979607</v>
+        <v>0.001138219661512722</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H16">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I16">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J16">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.305857492138615</v>
+        <v>0.3575543333333334</v>
       </c>
       <c r="N16">
-        <v>0.305857492138615</v>
+        <v>1.072663</v>
       </c>
       <c r="O16">
-        <v>0.02020447526635254</v>
+        <v>0.02292275654640424</v>
       </c>
       <c r="P16">
-        <v>0.02020447526635254</v>
+        <v>0.02901918638291757</v>
       </c>
       <c r="Q16">
-        <v>0.1533129019872122</v>
+        <v>0.04413853304788889</v>
       </c>
       <c r="R16">
-        <v>0.1533129019872122</v>
+        <v>0.3972467974310001</v>
       </c>
       <c r="S16">
-        <v>0.003201735507641809</v>
+        <v>0.0007842142998861997</v>
       </c>
       <c r="T16">
-        <v>0.003201735507641809</v>
+        <v>0.001254528667126196</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H17">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I17">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J17">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.416200874535538</v>
+        <v>0.4339576666666667</v>
       </c>
       <c r="N17">
-        <v>0.416200874535538</v>
+        <v>1.301873</v>
       </c>
       <c r="O17">
-        <v>0.02749358930719458</v>
+        <v>0.02782096318539646</v>
       </c>
       <c r="P17">
-        <v>0.02749358930719458</v>
+        <v>0.03522009730352221</v>
       </c>
       <c r="Q17">
-        <v>0.2086231840799265</v>
+        <v>0.05357019346677779</v>
       </c>
       <c r="R17">
-        <v>0.2086231840799265</v>
+        <v>0.4821317412010001</v>
       </c>
       <c r="S17">
-        <v>0.004356816990142865</v>
+        <v>0.000951787675379636</v>
       </c>
       <c r="T17">
-        <v>0.004356816990142865</v>
+        <v>0.001522600294274699</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H18">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I18">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J18">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.60715777624512</v>
+        <v>4.651555333333333</v>
       </c>
       <c r="N18">
-        <v>4.60715777624512</v>
+        <v>13.954666</v>
       </c>
       <c r="O18">
-        <v>0.3043417530414523</v>
+        <v>0.2982105390084161</v>
       </c>
       <c r="P18">
-        <v>0.3043417530414523</v>
+        <v>0.3775212285362343</v>
       </c>
       <c r="Q18">
-        <v>2.309365461837299</v>
+        <v>0.5742143491602223</v>
       </c>
       <c r="R18">
-        <v>2.309365461837299</v>
+        <v>5.167929142442</v>
       </c>
       <c r="S18">
-        <v>0.04822801801705399</v>
+        <v>0.01020213117012123</v>
       </c>
       <c r="T18">
-        <v>0.04822801801705399</v>
+        <v>0.01632062310079796</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.501255996428986</v>
+        <v>0.1234456666666667</v>
       </c>
       <c r="H19">
-        <v>0.501255996428986</v>
+        <v>0.370337</v>
       </c>
       <c r="I19">
-        <v>0.1584666498601826</v>
+        <v>0.03421116907552791</v>
       </c>
       <c r="J19">
-        <v>0.1584666498601826</v>
+        <v>0.04323100760208379</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.05634564545418</v>
+        <v>1.0802015</v>
       </c>
       <c r="N19">
-        <v>1.05634564545418</v>
+        <v>2.160403</v>
       </c>
       <c r="O19">
-        <v>0.06978056779667034</v>
+        <v>0.06925156178285448</v>
       </c>
       <c r="P19">
-        <v>0.06978056779667034</v>
+        <v>0.0584462569504255</v>
       </c>
       <c r="Q19">
-        <v>0.5294995890855554</v>
+        <v>0.1333461943018333</v>
       </c>
       <c r="R19">
-        <v>0.5294995890855554</v>
+        <v>0.8000771658110001</v>
       </c>
       <c r="S19">
-        <v>0.01105789280407969</v>
+        <v>0.002369176888897602</v>
       </c>
       <c r="T19">
-        <v>0.01105789280407969</v>
+        <v>0.002526690578537188</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H20">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I20">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J20">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.43918403387336</v>
+        <v>8.750552000000001</v>
       </c>
       <c r="N20">
-        <v>8.43918403387336</v>
+        <v>17.501104</v>
       </c>
       <c r="O20">
-        <v>0.557479510762864</v>
+        <v>0.5609966218914535</v>
       </c>
       <c r="P20">
-        <v>0.557479510762864</v>
+        <v>0.4734644514473084</v>
       </c>
       <c r="Q20">
-        <v>2.902518056983402</v>
+        <v>1.344682741586667</v>
       </c>
       <c r="R20">
-        <v>2.902518056983402</v>
+        <v>8.06809644952</v>
       </c>
       <c r="S20">
-        <v>0.06061521896826664</v>
+        <v>0.02389113008396368</v>
       </c>
       <c r="T20">
-        <v>0.06061521896826664</v>
+        <v>0.02547952142224635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H21">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I21">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J21">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.31336036989834</v>
+        <v>0.324405</v>
       </c>
       <c r="N21">
-        <v>0.31336036989834</v>
+        <v>0.9732149999999999</v>
       </c>
       <c r="O21">
-        <v>0.02070010382546637</v>
+        <v>0.0207975575854754</v>
       </c>
       <c r="P21">
-        <v>0.02070010382546637</v>
+        <v>0.02632877937959184</v>
       </c>
       <c r="Q21">
-        <v>0.1077751271120791</v>
+        <v>0.04985077567499999</v>
       </c>
       <c r="R21">
-        <v>0.1077751271120791</v>
+        <v>0.448656981075</v>
       </c>
       <c r="S21">
-        <v>0.002250739806256717</v>
+        <v>0.0008857043595522016</v>
       </c>
       <c r="T21">
-        <v>0.002250739806256717</v>
+        <v>0.001416885039992419</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H22">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I22">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J22">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.305857492138615</v>
+        <v>0.3575543333333334</v>
       </c>
       <c r="N22">
-        <v>0.305857492138615</v>
+        <v>1.072663</v>
       </c>
       <c r="O22">
-        <v>0.02020447526635254</v>
+        <v>0.02292275654640424</v>
       </c>
       <c r="P22">
-        <v>0.02020447526635254</v>
+        <v>0.02901918638291757</v>
       </c>
       <c r="Q22">
-        <v>0.1051946361440506</v>
+        <v>0.05494477847944444</v>
       </c>
       <c r="R22">
-        <v>0.1051946361440506</v>
+        <v>0.494503006315</v>
       </c>
       <c r="S22">
-        <v>0.002196849693602173</v>
+        <v>0.0009762100824898334</v>
       </c>
       <c r="T22">
-        <v>0.002196849693602173</v>
+        <v>0.001561669474528637</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H23">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I23">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J23">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.416200874535538</v>
+        <v>0.4339576666666667</v>
       </c>
       <c r="N23">
-        <v>0.416200874535538</v>
+        <v>1.301873</v>
       </c>
       <c r="O23">
-        <v>0.02749358930719458</v>
+        <v>0.02782096318539646</v>
       </c>
       <c r="P23">
-        <v>0.02749358930719458</v>
+        <v>0.03522009730352221</v>
       </c>
       <c r="Q23">
-        <v>0.1431454212661871</v>
+        <v>0.06668555137388889</v>
       </c>
       <c r="R23">
-        <v>0.1431454212661871</v>
+        <v>0.600169962365</v>
       </c>
       <c r="S23">
-        <v>0.002989401231623181</v>
+        <v>0.001184809720034425</v>
       </c>
       <c r="T23">
-        <v>0.002989401231623181</v>
+        <v>0.001895371914397178</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.343933494675933</v>
+        <v>0.1536683333333333</v>
       </c>
       <c r="H24">
-        <v>0.343933494675933</v>
+        <v>0.461005</v>
       </c>
       <c r="I24">
-        <v>0.108730846242797</v>
+        <v>0.04258694108248363</v>
       </c>
       <c r="J24">
-        <v>0.108730846242797</v>
+        <v>0.05381506751849974</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.60715777624512</v>
+        <v>4.651555333333333</v>
       </c>
       <c r="N24">
-        <v>4.60715777624512</v>
+        <v>13.954666</v>
       </c>
       <c r="O24">
-        <v>0.3043417530414523</v>
+        <v>0.2982105390084161</v>
       </c>
       <c r="P24">
-        <v>0.3043417530414523</v>
+        <v>0.3775212285362343</v>
       </c>
       <c r="Q24">
-        <v>1.584555874507384</v>
+        <v>0.7147967554811111</v>
       </c>
       <c r="R24">
-        <v>1.584555874507384</v>
+        <v>6.43317079933</v>
       </c>
       <c r="S24">
-        <v>0.03309133635521343</v>
+        <v>0.0126998746549271</v>
       </c>
       <c r="T24">
-        <v>0.03309133635521343</v>
+        <v>0.02031633040334442</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1536683333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.461005</v>
+      </c>
+      <c r="I25">
+        <v>0.04258694108248363</v>
+      </c>
+      <c r="J25">
+        <v>0.05381506751849974</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.0802015</v>
+      </c>
+      <c r="N25">
+        <v>2.160403</v>
+      </c>
+      <c r="O25">
+        <v>0.06925156178285448</v>
+      </c>
+      <c r="P25">
+        <v>0.0584462569504255</v>
+      </c>
+      <c r="Q25">
+        <v>0.1659927641691667</v>
+      </c>
+      <c r="R25">
+        <v>0.9959565850150001</v>
+      </c>
+      <c r="S25">
+        <v>0.002949212181516399</v>
+      </c>
+      <c r="T25">
+        <v>0.003145289263990733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.643757</v>
+      </c>
+      <c r="I26">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J26">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.750552000000001</v>
+      </c>
+      <c r="N26">
+        <v>17.501104</v>
+      </c>
+      <c r="O26">
+        <v>0.5609966218914535</v>
+      </c>
+      <c r="P26">
+        <v>0.4734644514473084</v>
+      </c>
+      <c r="Q26">
+        <v>4.794593701288</v>
+      </c>
+      <c r="R26">
+        <v>28.767562207728</v>
+      </c>
+      <c r="S26">
+        <v>0.0851860875986722</v>
+      </c>
+      <c r="T26">
+        <v>0.09084964738878622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H27">
+        <v>1.643757</v>
+      </c>
+      <c r="I27">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J27">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.324405</v>
+      </c>
+      <c r="N27">
+        <v>0.9732149999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0207975575854754</v>
+      </c>
+      <c r="P27">
+        <v>0.02632877937959184</v>
+      </c>
+      <c r="Q27">
+        <v>0.177747663195</v>
+      </c>
+      <c r="R27">
+        <v>1.599728968755</v>
+      </c>
+      <c r="S27">
+        <v>0.003158062799632212</v>
+      </c>
+      <c r="T27">
+        <v>0.005052037836211794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.643757</v>
+      </c>
+      <c r="I28">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J28">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3575543333333334</v>
+      </c>
+      <c r="N28">
+        <v>1.072663</v>
+      </c>
+      <c r="O28">
+        <v>0.02292275654640424</v>
+      </c>
+      <c r="P28">
+        <v>0.02901918638291757</v>
+      </c>
+      <c r="Q28">
+        <v>0.1959108127656667</v>
+      </c>
+      <c r="R28">
+        <v>1.763197314891</v>
+      </c>
+      <c r="S28">
+        <v>0.00348076952866724</v>
+      </c>
+      <c r="T28">
+        <v>0.005568280453450113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H29">
+        <v>1.643757</v>
+      </c>
+      <c r="I29">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J29">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4339576666666667</v>
+      </c>
+      <c r="N29">
+        <v>1.301873</v>
+      </c>
+      <c r="O29">
+        <v>0.02782096318539646</v>
+      </c>
+      <c r="P29">
+        <v>0.03522009730352221</v>
+      </c>
+      <c r="Q29">
+        <v>0.2377736507623333</v>
+      </c>
+      <c r="R29">
+        <v>2.139962856861</v>
+      </c>
+      <c r="S29">
+        <v>0.004224551297653229</v>
+      </c>
+      <c r="T29">
+        <v>0.00675812811551667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H30">
+        <v>1.643757</v>
+      </c>
+      <c r="I30">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J30">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.651555333333333</v>
+      </c>
+      <c r="N30">
+        <v>13.954666</v>
+      </c>
+      <c r="O30">
+        <v>0.2982105390084161</v>
+      </c>
+      <c r="P30">
+        <v>0.3775212285362343</v>
+      </c>
+      <c r="Q30">
+        <v>2.548675546684666</v>
+      </c>
+      <c r="R30">
+        <v>22.938079920162</v>
+      </c>
+      <c r="S30">
+        <v>0.04528260618249045</v>
+      </c>
+      <c r="T30">
+        <v>0.07243980068504727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.5479189999999999</v>
+      </c>
+      <c r="H31">
+        <v>1.643757</v>
+      </c>
+      <c r="I31">
+        <v>0.1518477728287547</v>
+      </c>
+      <c r="J31">
+        <v>0.1918827213132321</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.0802015</v>
+      </c>
+      <c r="N31">
+        <v>2.160403</v>
+      </c>
+      <c r="O31">
+        <v>0.06925156178285448</v>
+      </c>
+      <c r="P31">
+        <v>0.0584462569504255</v>
+      </c>
+      <c r="Q31">
+        <v>0.5918629256785</v>
+      </c>
+      <c r="R31">
+        <v>3.551177554071</v>
+      </c>
+      <c r="S31">
+        <v>0.01051569542163936</v>
+      </c>
+      <c r="T31">
+        <v>0.01121482683422005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.3443785</v>
+      </c>
+      <c r="H32">
+        <v>0.688757</v>
+      </c>
+      <c r="I32">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J32">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.750552000000001</v>
+      </c>
+      <c r="N32">
+        <v>17.501104</v>
+      </c>
+      <c r="O32">
+        <v>0.5609966218914535</v>
+      </c>
+      <c r="P32">
+        <v>0.4734644514473084</v>
+      </c>
+      <c r="Q32">
+        <v>3.013501971932</v>
+      </c>
+      <c r="R32">
+        <v>12.054007887728</v>
+      </c>
+      <c r="S32">
+        <v>0.0535412297585945</v>
+      </c>
+      <c r="T32">
+        <v>0.03806726334035884</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.3443785</v>
+      </c>
+      <c r="H33">
+        <v>0.688757</v>
+      </c>
+      <c r="I33">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J33">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.324405</v>
+      </c>
+      <c r="N33">
+        <v>0.9732149999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0207975575854754</v>
+      </c>
+      <c r="P33">
+        <v>0.02632877937959184</v>
+      </c>
+      <c r="Q33">
+        <v>0.1117181072925</v>
+      </c>
+      <c r="R33">
+        <v>0.6703086437549999</v>
+      </c>
+      <c r="S33">
+        <v>0.001984908225199604</v>
+      </c>
+      <c r="T33">
+        <v>0.002116873980737862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.3443785</v>
+      </c>
+      <c r="H34">
+        <v>0.688757</v>
+      </c>
+      <c r="I34">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J34">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.3575543333333334</v>
+      </c>
+      <c r="N34">
+        <v>1.072663</v>
+      </c>
+      <c r="O34">
+        <v>0.02292275654640424</v>
+      </c>
+      <c r="P34">
+        <v>0.02901918638291757</v>
+      </c>
+      <c r="Q34">
+        <v>0.1231340249818333</v>
+      </c>
+      <c r="R34">
+        <v>0.7388041498910001</v>
+      </c>
+      <c r="S34">
+        <v>0.002187736123638953</v>
+      </c>
+      <c r="T34">
+        <v>0.002333186803327341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="H25">
-        <v>0.343933494675933</v>
-      </c>
-      <c r="I25">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="J25">
-        <v>0.108730846242797</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.05634564545418</v>
-      </c>
-      <c r="N25">
-        <v>1.05634564545418</v>
-      </c>
-      <c r="O25">
-        <v>0.06978056779667034</v>
-      </c>
-      <c r="P25">
-        <v>0.06978056779667034</v>
-      </c>
-      <c r="Q25">
-        <v>0.3633126494267602</v>
-      </c>
-      <c r="R25">
-        <v>0.3633126494267602</v>
-      </c>
-      <c r="S25">
-        <v>0.007587300187834833</v>
-      </c>
-      <c r="T25">
-        <v>0.007587300187834833</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.3443785</v>
+      </c>
+      <c r="H35">
+        <v>0.688757</v>
+      </c>
+      <c r="I35">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J35">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4339576666666667</v>
+      </c>
+      <c r="N35">
+        <v>1.301873</v>
+      </c>
+      <c r="O35">
+        <v>0.02782096318539646</v>
+      </c>
+      <c r="P35">
+        <v>0.03522009730352221</v>
+      </c>
+      <c r="Q35">
+        <v>0.1494456903101667</v>
+      </c>
+      <c r="R35">
+        <v>0.896674141861</v>
+      </c>
+      <c r="S35">
+        <v>0.002655218452104915</v>
+      </c>
+      <c r="T35">
+        <v>0.0028317494900152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.3443785</v>
+      </c>
+      <c r="H36">
+        <v>0.688757</v>
+      </c>
+      <c r="I36">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J36">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.651555333333333</v>
+      </c>
+      <c r="N36">
+        <v>13.954666</v>
+      </c>
+      <c r="O36">
+        <v>0.2982105390084161</v>
+      </c>
+      <c r="P36">
+        <v>0.3775212285362343</v>
+      </c>
+      <c r="Q36">
+        <v>1.601895648360333</v>
+      </c>
+      <c r="R36">
+        <v>9.611373890162</v>
+      </c>
+      <c r="S36">
+        <v>0.02846106083785521</v>
+      </c>
+      <c r="T36">
+        <v>0.0303532820243084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.3443785</v>
+      </c>
+      <c r="H37">
+        <v>0.688757</v>
+      </c>
+      <c r="I37">
+        <v>0.09543948692253289</v>
+      </c>
+      <c r="J37">
+        <v>0.08040152375535911</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.0802015</v>
+      </c>
+      <c r="N37">
+        <v>2.160403</v>
+      </c>
+      <c r="O37">
+        <v>0.06925156178285448</v>
+      </c>
+      <c r="P37">
+        <v>0.0584462569504255</v>
+      </c>
+      <c r="Q37">
+        <v>0.37199817226775</v>
+      </c>
+      <c r="R37">
+        <v>1.487992689071</v>
+      </c>
+      <c r="S37">
+        <v>0.006609333525139718</v>
+      </c>
+      <c r="T37">
+        <v>0.004699168116611458</v>
       </c>
     </row>
   </sheetData>
